--- a/biology/Médecine/Hôpital_St._Helena_de_Clearlake/Hôpital_St._Helena_de_Clearlake.xlsx
+++ b/biology/Médecine/Hôpital_St._Helena_de_Clearlake/Hôpital_St._Helena_de_Clearlake.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_St._Helena_de_Clearlake</t>
+          <t>Hôpital_St._Helena_de_Clearlake</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’hôpital de St. Helena, Clearlake (en anglais, St. Helena Hospital Clearlake ) est un centre hospitalier adventiste à Clearlake en Californie. C’est un hôpital d’intervention de soins critiques pour les habitants du comté de Lake.  
-St. Helena -- Clearlake fait partie d’un système médical multiplexe qui fonctionne en partenariat avec l’hôpital de St. Helena d'Angwin. Il comprend trois centres de santé familiale dans le comté de Lake : à Clearlake, Middletown et Kelseyville[1],[2].
+St. Helena -- Clearlake fait partie d’un système médical multiplexe qui fonctionne en partenariat avec l’hôpital de St. Helena d'Angwin. Il comprend trois centres de santé familiale dans le comté de Lake : à Clearlake, Middletown et Kelseyville,.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_St._Helena_de_Clearlake</t>
+          <t>Hôpital_St._Helena_de_Clearlake</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital de St. Helena -- Clearlake démarra initialement sous le nom de Redbud Community Hospital. Son objectif était de procurer des soins d'urgence à la communauté relativement isolée et peu nombreuse du comté de Lake. 
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_St._Helena_de_Clearlake</t>
+          <t>Hôpital_St._Helena_de_Clearlake</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Services</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Premiers soins
 Pédiatrie
@@ -556,8 +572,8 @@
 Diététique
 Service des femmes : obstétrique et gynécologie
 Éducation et traitement du diabète
-St. Helena -- Clearlake possède un service d'urgence qui transporte éventuellement rapidement (13 minutes) en hélicoptère les blessés graves et les malades dans une situation critique à l'höpital de St. Helena à Angwin[3]. C'est un membre d'Adventist Health (Santé adventiste), une organisation qui supervise et gère les centres hospitaliers adventistes de la Californie[4].
-Depuis quelques années, le comté de Lake voit sa population augmenter, ainsi que le nombre d'accidents, notamment de la route. Aussi, l'hôpital de St. Helena -- Clearlake s'est lancé dans le projet d'une expansion de douze chambres d'urgence et de l'acquisition d'une technologie médicale plus opérationnelle sur place pour faire face à ce défi[3].   
+St. Helena -- Clearlake possède un service d'urgence qui transporte éventuellement rapidement (13 minutes) en hélicoptère les blessés graves et les malades dans une situation critique à l'höpital de St. Helena à Angwin. C'est un membre d'Adventist Health (Santé adventiste), une organisation qui supervise et gère les centres hospitaliers adventistes de la Californie.
+Depuis quelques années, le comté de Lake voit sa population augmenter, ainsi que le nombre d'accidents, notamment de la route. Aussi, l'hôpital de St. Helena -- Clearlake s'est lancé dans le projet d'une expansion de douze chambres d'urgence et de l'acquisition d'une technologie médicale plus opérationnelle sur place pour faire face à ce défi.   
 </t>
         </is>
       </c>
